--- a/data/UserSignInFunctionality.xlsx
+++ b/data/UserSignInFunctionality.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\One_lern_Project_2022_Automation\Onelern_Automation\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2(WORK)\Onelern\Automation\Frugal_Onelern_Structure\Frugal_Onelern_Structure\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C5968F-58E6-4E78-AE1C-117B1DCC55EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="827" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Student Credentials" sheetId="2" r:id="rId1"/>
+    <sheet name="Teacher Credentials" sheetId="3" r:id="rId2"/>
+    <sheet name="StudentLoginPageCorrectCredenti" sheetId="4" r:id="rId3"/>
+    <sheet name="StudentLoginPageIncorrectPasswo" sheetId="5" r:id="rId4"/>
+    <sheet name="IncorrectuserMobileNoCheck_Data" sheetId="6" r:id="rId5"/>
+    <sheet name="TeacherLoginPageCorrectCredenti" sheetId="7" r:id="rId6"/>
+    <sheet name="TeacherLoginPageIncorrectPasswo" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,22 +31,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>mobile</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="3">
   <si>
     <t>password</t>
   </si>
+  <si>
+    <t>Mobile number</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -65,8 +82,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -346,56 +365,470 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCADF823-0373-42FD-B1AC-D252257E245E}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>9000000001</v>
+      </c>
+      <c r="B2" s="1">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>9000000021</v>
+      </c>
+      <c r="B3" s="1">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>9000000041</v>
+      </c>
+      <c r="B4" s="1">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>9000000061</v>
+      </c>
+      <c r="B5" s="1">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>9000000081</v>
+      </c>
+      <c r="B6" s="1">
+        <v>123456</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D5921FD-4D90-40A0-A53C-89C97112D70F}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="1">
+        <v>9000000101</v>
+      </c>
+      <c r="B2" s="1">
+        <v>123465</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>9000000105</v>
+      </c>
+      <c r="B3" s="1">
+        <v>123465</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>9000000109</v>
+      </c>
+      <c r="B4" s="1">
+        <v>123465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>9000000113</v>
+      </c>
+      <c r="B5" s="1">
+        <v>123465</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>9000000117</v>
+      </c>
+      <c r="B6" s="1">
+        <v>123465</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C6B6C88-A1F3-4F78-9C31-F912061E4293}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>9000000001</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>123456</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>9000000101</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="1">
+        <v>9000000024</v>
+      </c>
+      <c r="B3" s="1">
         <v>123456</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>9000000701</v>
-      </c>
-      <c r="B4">
-        <v>1234</v>
+      <c r="A4" s="1">
+        <v>9000000056</v>
+      </c>
+      <c r="B4" s="1">
+        <v>123456</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="1">
+        <v>9000000085</v>
+      </c>
+      <c r="B5" s="1">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>9000000091</v>
+      </c>
+      <c r="B6" s="1">
+        <v>123456</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAEE4E7C-EE16-4AA1-8149-30C3AA39CBAA}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>9000000001</v>
       </c>
-      <c r="B5">
-        <v>1234567</v>
+      <c r="B2" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>9000000024</v>
+      </c>
+      <c r="B3" s="1">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>9000000056</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>9000000085</v>
+      </c>
+      <c r="B5" s="1">
+        <v>12380761</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>9000000091</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1234987615</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{631950BB-DE7E-44CB-875E-E8E023FC66CF}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>9007000010</v>
+      </c>
+      <c r="B2" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>900</v>
+      </c>
+      <c r="B3" s="1">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>8000000056687</v>
+      </c>
+      <c r="B4" s="1">
+        <v>12345318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>900000824185</v>
+      </c>
+      <c r="B5" s="1">
+        <v>12380761</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>90000</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1234987615</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12588F56-53AA-4B79-8B7E-7CF3EFE8EFD4}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>9000000102</v>
+      </c>
+      <c r="B2" s="1">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>9000000105</v>
+      </c>
+      <c r="B3" s="1">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>9000000111</v>
+      </c>
+      <c r="B4" s="1">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>9000000115</v>
+      </c>
+      <c r="B5" s="1">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>9000000118</v>
+      </c>
+      <c r="B6" s="1">
+        <v>123456</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9295515-46C5-4BC5-A279-E707AA8C8FD4}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.21875" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>9000000102</v>
+      </c>
+      <c r="B2" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>9000000105</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>9000000111</v>
+      </c>
+      <c r="B4" s="1">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>9000000115</v>
+      </c>
+      <c r="B5" s="1">
+        <v>12345610</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>9000000118</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1234567894651</v>
       </c>
     </row>
   </sheetData>

--- a/data/UserSignInFunctionality.xlsx
+++ b/data/UserSignInFunctionality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2(WORK)\Onelern\Automation\Frugal_Onelern_Structure\Frugal_Onelern_Structure\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C5968F-58E6-4E78-AE1C-117B1DCC55EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05488A2B-6FEC-4C7F-B83F-3B80D971F7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="827" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="827" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student Credentials" sheetId="2" r:id="rId1"/>
@@ -368,7 +368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCADF823-0373-42FD-B1AC-D252257E245E}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -435,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D5921FD-4D90-40A0-A53C-89C97112D70F}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -458,7 +458,7 @@
         <v>9000000101</v>
       </c>
       <c r="B2" s="1">
-        <v>123465</v>
+        <v>123456</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -466,7 +466,7 @@
         <v>9000000105</v>
       </c>
       <c r="B3" s="1">
-        <v>123465</v>
+        <v>123456</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -474,7 +474,7 @@
         <v>9000000109</v>
       </c>
       <c r="B4" s="1">
-        <v>123465</v>
+        <v>123456</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -482,7 +482,7 @@
         <v>9000000113</v>
       </c>
       <c r="B5" s="1">
-        <v>123465</v>
+        <v>123456</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -490,7 +490,7 @@
         <v>9000000117</v>
       </c>
       <c r="B6" s="1">
-        <v>123465</v>
+        <v>123456</v>
       </c>
     </row>
   </sheetData>
@@ -707,7 +707,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B6"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
